--- a/sport/output/50.xlsx
+++ b/sport/output/50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>title</t>
   </si>
@@ -28,85 +28,43 @@
     <t>organizer</t>
   </si>
   <si>
-    <t>国际武联第十届武术散打世界杯</t>
-  </si>
-  <si>
-    <t>2025国际武联武术套路教练员培训班</t>
-  </si>
-  <si>
-    <t>2025年国际武联武术套路裁判员培训班</t>
-  </si>
-  <si>
-    <t>2025年国际咏春拳大赛</t>
-  </si>
-  <si>
-    <t>第十二届世界运动会  - 武术套路比赛</t>
-  </si>
-  <si>
-    <t>第十二届世界运动会  - 武术散打比赛</t>
-  </si>
-  <si>
-    <t>第八个世界武术日</t>
-  </si>
-  <si>
-    <t>第十七届世界武术锦标赛</t>
-  </si>
-  <si>
-    <t>第十届世界传统武术锦标赛</t>
-  </si>
-  <si>
-    <t>4.5 - 4.10</t>
-  </si>
-  <si>
-    <t>4.7 - 4.13</t>
-  </si>
-  <si>
-    <t>4.10 - 4.16</t>
-  </si>
-  <si>
-    <t>7.28 - 7.31</t>
-  </si>
-  <si>
-    <t>8.5 - 8.10</t>
-  </si>
-  <si>
-    <t>8.7 - 8.13</t>
-  </si>
-  <si>
-    <t>8.9</t>
-  </si>
-  <si>
-    <t>9.7 - 9.14</t>
-  </si>
-  <si>
-    <t>10.14 - 10.20</t>
-  </si>
-  <si>
-    <t>中国·江阴</t>
-  </si>
-  <si>
-    <t>中国•江阴</t>
-  </si>
-  <si>
-    <t>中国·佛山</t>
-  </si>
-  <si>
-    <t>中国·成都</t>
-  </si>
-  <si>
-    <t>世界各地</t>
-  </si>
-  <si>
-    <t>巴西·巴西利亚</t>
-  </si>
-  <si>
-    <t>中国·峨眉山</t>
+    <t>2026年达喀尔青奥会武术比赛</t>
+  </si>
+  <si>
+    <t>第四届套路世界杯</t>
+  </si>
+  <si>
+    <t>第十一届散打世界杯</t>
+  </si>
+  <si>
+    <t>第十届世界青少年武术锦标赛</t>
+  </si>
+  <si>
+    <t>第五届世界太极拳锦标赛</t>
+  </si>
+  <si>
+    <t>待定</t>
+  </si>
+  <si>
+    <t>03.23 - 03.31</t>
+  </si>
+  <si>
+    <t>09.21 - 09.28</t>
+  </si>
+  <si>
+    <t>塞内加尔·达喀尔</t>
+  </si>
+  <si>
+    <t>中国·天津</t>
+  </si>
+  <si>
+    <t>保加利亚·布尔加斯</t>
+  </si>
+  <si>
+    <t>国际奥委会</t>
   </si>
   <si>
     <t>国际武联</t>
-  </si>
-  <si>
-    <t>国际世界运动会协会</t>
   </si>
 </sst>
 </file>
@@ -464,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,13 +447,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -503,13 +461,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -517,13 +475,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -531,13 +489,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -545,69 +503,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
